--- a/biology/Botanique/Ensete/Ensete.xlsx
+++ b/biology/Botanique/Ensete/Ensete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ensete est un des trois genres de la famille des Musaceae dont les fruits sont des petites bananes. 
-Ce genre comprend sept espèces recensées[1], toutes tropicales. Ensete ventricosum est cultivé pour sa racine comestible, notamment en Éthiopie, et les autres espèces ont surtout un intérêt ornemental. Certaines espèces sont cultivées en serres dans les pays tempérés, ou même à l'extérieur dans leurs régions les plus douces. 
+Ce genre comprend sept espèces recensées, toutes tropicales. Ensete ventricosum est cultivé pour sa racine comestible, notamment en Éthiopie, et les autres espèces ont surtout un intérêt ornemental. Certaines espèces sont cultivées en serres dans les pays tempérés, ou même à l'extérieur dans leurs régions les plus douces. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont originaires d'Afrique et d'Asie.
 </t>
@@ -543,25 +557,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 juillet 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 juillet 2018) :
 Ensete glaucum (Roxb.) Cheesman
 Ensete homblei (Bequaert ex De Wild.) Cheesman
 Ensete lecongkietii Luu, N.L.Vu &amp; Q.D.Nguyen
 Ensete livingstonianum (J.Kirk) Cheesman
 Ensete perrieri (Claverie) Cheesman
 Ensete superbum (Roxb.) Cheesman
-Ensete ventricosum (Welw.) Cheesman
-Originaires d'Afrique
-Ensete gilletii
-Ensete homblei
-Ensete perrieri
-Ensete ventricosum
-Originaires d'Asie
-Ensete glaucum
-Ensete superbum
-Ensete wilsonii</t>
+Ensete ventricosum (Welw.) Cheesman</t>
         </is>
       </c>
     </row>
@@ -586,12 +593,91 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Originaires d'Afrique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ensete gilletii
+Ensete homblei
+Ensete perrieri
+Ensete ventricosum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ensete</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ensete</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Originaires d'Asie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ensete glaucum
+Ensete superbum
+Ensete wilsonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ensete</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ensete</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On ne consomme pas les fruits de l'ensète, mais sa pulpe et sa racine, qui possèdent d'excellentes qualités nutritives[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne consomme pas les fruits de l'ensète, mais sa pulpe et sa racine, qui possèdent d'excellentes qualités nutritives.
 </t>
         </is>
       </c>
